--- a/Backup Database/HDSD.xlsx
+++ b/Backup Database/HDSD.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NAMO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\SMS\Backup Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình bán hàng" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Màn hình nhập kho mua hàng" sheetId="2" r:id="rId2"/>
+    <sheet name="Danh sách các phiếu nhập kho" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>MÀN HÌNH BÁN HÀNG</t>
   </si>
@@ -64,6 +65,27 @@
   </si>
   <si>
     <t>Giá trị kho vừa được chọn sẽ là giá trị mặc định cho các dòng dữ liệu tiếp theo</t>
+  </si>
+  <si>
+    <t>Giao diện quyền quản lý kho</t>
+  </si>
+  <si>
+    <t>Cách sử dụng:</t>
+  </si>
+  <si>
+    <t>Giao diện - quyền Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập mã sản phẩm + Enter </t>
+  </si>
+  <si>
+    <t>Màn hình ứng với quyền quản lý kho</t>
+  </si>
+  <si>
+    <t>Màn hình ứng với quyền admin</t>
+  </si>
+  <si>
+    <t>Màn hình chi tiết phiếu nhập kho</t>
   </si>
 </sst>
 </file>
@@ -933,6 +955,1755 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>255652</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="371475"/>
+          <a:ext cx="12180952" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>746311</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294154</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2594161" y="1125070"/>
+          <a:ext cx="2195793" cy="763681"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click here</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323446</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>187797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="145676" y="5434853"/>
+          <a:ext cx="12190476" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96931</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>221317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2386853" y="6376148"/>
+          <a:ext cx="2181225" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click here</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32189</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>169719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616324" y="9883588"/>
+          <a:ext cx="11428571" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132951</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>185297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9405258" y="9803947"/>
+          <a:ext cx="2195793" cy="782650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sẽ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> hiển thị column đơn giá</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>594561</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>6191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693965" y="16165286"/>
+          <a:ext cx="11466667" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14568</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>106375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="17545050"/>
+          <a:ext cx="2195793" cy="896950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Không</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> thấy đơn giá</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32189</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>169719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="21431250"/>
+          <a:ext cx="11490764" cy="4932219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>115900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="21602700"/>
+          <a:ext cx="3743325" cy="896950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chỉ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> có quyền admin mới được thay đổi kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508834</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>154511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598715" y="27853821"/>
+          <a:ext cx="11476190" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>144234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129268</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>88685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="29290734"/>
+          <a:ext cx="4837339" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26729"/>
+            <a:gd name="adj2" fmla="val 147001"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Với quyền quản lý kho, sau khi nhập số lượng + Enter =&gt; sẽ thêm được dòng mới</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>106133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>50584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangular Callout 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9778092" y="29252633"/>
+          <a:ext cx="4427763" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45531"/>
+            <a:gd name="adj2" fmla="val 164669"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Với quyền quản lý kho, sau khi nhập số lượng + Enter =&gt; sẽ di chuyển đến ô đơn giá</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91168</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>91406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangular Callout 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1464129" y="30575250"/>
+          <a:ext cx="3784146" cy="622085"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -30804"/>
+            <a:gd name="adj2" fmla="val 198534"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ctrl+S để lưu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>545572</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>2048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625929" y="33310286"/>
+          <a:ext cx="11485714" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>734788</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>415020</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>230201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2598967" y="32861250"/>
+          <a:ext cx="9382124" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32589"/>
+            <a:gd name="adj2" fmla="val 80744"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Khi hóa đơn nhập không hợp lệ, chúng ta sẽ nhận đuộc thông báo như hình bên dưới</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>312801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="123825"/>
+          <a:ext cx="12190476" cy="4038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164646</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="447675"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16997"/>
+            <a:gd name="adj2" fmla="val 158191"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click here</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>465295</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4705350"/>
+          <a:ext cx="11438095" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>522438</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>151759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9696450"/>
+          <a:ext cx="11495238" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259896</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="10429875"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Admin có thể xem tất cả các phiếu nhập kho của tất cả các nhân viên.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>498021</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="7419975"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhân viên quản lý kho chỉ có thể nhìn thấy các phiếu nhập kho của mình</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107496</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="4572000"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tìm kiếm phiếu nhập kho theo nhà cung cấp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183696</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="4476750"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Các loại nhập kho: Nhập mua hàng, Nhập chuyển kho, nhập điều chỉnh ...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="6057900"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76903"/>
+            <a:gd name="adj2" fmla="val -32481"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ngày nhập kho: Từ ngày A đến ngày B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="10048875"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -19262"/>
+            <a:gd name="adj2" fmla="val 107689"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>và tất cả các kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88446</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="12668250"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32854"/>
+            <a:gd name="adj2" fmla="val -111842"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Menu di chuyển nhanh đến các hạng mục: nhập mua hàng ....</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155121</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangular Callout 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="12801600"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65816"/>
+            <a:gd name="adj2" fmla="val -64432"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phân trang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>85965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangular Callout 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="14401800"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18758"/>
+            <a:gd name="adj2" fmla="val -96382"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click vào đây để xem chi tiết phiếu nhập kho</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>551012</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>56537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="15916275"/>
+          <a:ext cx="11504762" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>583746</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="14782800"/>
+          <a:ext cx="3784146" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 120"/>
+            <a:gd name="adj2" fmla="val -134516"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sửa và hủy phiếu nhập kho.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chỉ có thể sửa được phiếu nhập trong các trường hợp nhập mua hàng, nhập điều chỉnh kho. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1203,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
@@ -1284,27 +3055,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A41:A113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G163" sqref="G163"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="12" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A24:A83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backup Database/HDSD.xlsx
+++ b/Backup Database/HDSD.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình bán hàng" sheetId="1" r:id="rId1"/>
     <sheet name="Màn hình nhập kho mua hàng" sheetId="2" r:id="rId2"/>
     <sheet name="Danh sách các phiếu nhập kho" sheetId="3" r:id="rId3"/>
+    <sheet name="Nhập điều chỉnh kho" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>MÀN HÌNH BÁN HÀNG</t>
   </si>
@@ -86,6 +87,12 @@
   </si>
   <si>
     <t>Màn hình chi tiết phiếu nhập kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Màn hình nhập điều chỉnh kho: </t>
+  </si>
+  <si>
+    <t>Khi kiểm kho phát hiện 1 số mặt hàng có số tồn kho thực tế nhiều hơn so với tồn kho ở phần mềm =&gt; Cần điều chỉnh kho</t>
   </si>
 </sst>
 </file>
@@ -2701,6 +2708,494 @@
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>512914</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="438150"/>
+          <a:ext cx="11485714" cy="4723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>345621</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="3714750"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67086"/>
+            <a:gd name="adj2" fmla="val 77800"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ctrl + S = Lưu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522438</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="11495238" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162174" y="6743700"/>
+          <a:ext cx="4010025" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42922"/>
+            <a:gd name="adj2" fmla="val 178805"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Gõ Code của sản phẩm + Enter. Con trỏ chuột sẽ di chuyển đến Cell số lượng</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>459921</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="6877050"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -8941"/>
+            <a:gd name="adj2" fmla="val 140671"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhập số lượng và Enter =&gt; Add thêm dòng mới</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>189638</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="6895238" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>105015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="10991850"/>
+          <a:ext cx="4010025" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -42922"/>
+            <a:gd name="adj2" fmla="val 178805"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Hoặc chọn vào danh sách gọi ý bên dưới</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503390</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>151738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14478000"/>
+          <a:ext cx="11476190" cy="5295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="15544800"/>
+          <a:ext cx="5181600" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76414"/>
+            <a:gd name="adj2" fmla="val -76799"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Quá trình kiểm tra dữ liệu, nếu không thõa điều kiện. Message thông báo lỗi sẽ được hiển thị</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2974,7 +3469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G131" sqref="G131"/>
     </sheetView>
   </sheetViews>
@@ -3109,7 +3604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A24:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
@@ -3137,4 +3632,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Backup Database/HDSD.xlsx
+++ b/Backup Database/HDSD.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\SMS\Backup Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\sms-store-managment-system\Backup Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Màn hình bán hàng" sheetId="1" r:id="rId1"/>
     <sheet name="Màn hình nhập kho mua hàng" sheetId="2" r:id="rId2"/>
     <sheet name="Danh sách các phiếu nhập kho" sheetId="3" r:id="rId3"/>
     <sheet name="Nhập điều chỉnh kho" sheetId="4" r:id="rId4"/>
+    <sheet name="Nhập kiểm kho" sheetId="5" r:id="rId5"/>
+    <sheet name="Màn hình thu tiền" sheetId="6" r:id="rId6"/>
+    <sheet name="Màn hình xuất kho bán hàng" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>MÀN HÌNH BÁN HÀNG</t>
   </si>
@@ -93,6 +96,30 @@
   </si>
   <si>
     <t>Khi kiểm kho phát hiện 1 số mặt hàng có số tồn kho thực tế nhiều hơn so với tồn kho ở phần mềm =&gt; Cần điều chỉnh kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download template </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vào màn hình kiểm tra tồn kho </t>
+  </si>
+  <si>
+    <t>Dùng open Office để mở file vừa download về, các thông số mở file như hình bên dưới</t>
+  </si>
+  <si>
+    <t>Thay đổi thông tin và lưu lại</t>
+  </si>
+  <si>
+    <t>Vào màn hình nhập điều chỉnh kho</t>
+  </si>
+  <si>
+    <t>Chọn file và nhập kho</t>
+  </si>
+  <si>
+    <t>Sau khi nhập kho thành công =&gt; Số lượng tồn là số lượng vừa mới được nhập điều chỉnh =&gt; Chốt sổ</t>
+  </si>
+  <si>
+    <t>Vào màn hình danh sách các hóa đơn chưa thu tiền</t>
   </si>
 </sst>
 </file>
@@ -3196,6 +3223,527 @@
             </a:rPr>
             <a:t>Quá trình kiểm tra dữ liệu, nếu không thõa điều kiện. Message thông báo lỗi sẽ được hiển thị</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>484343</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="11457143" cy="5352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>131886</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11714286" cy="3561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>259896</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="1981200"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67086"/>
+            <a:gd name="adj2" fmla="val 77800"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click here</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>478971</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="4010025"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 92497"/>
+            <a:gd name="adj2" fmla="val 72647"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Download template</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218287</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>123111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="10029825"/>
+          <a:ext cx="6304762" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579962</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16002000"/>
+          <a:ext cx="8504762" cy="4657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503390</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>123571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21336000"/>
+          <a:ext cx="11476190" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>484343</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>56476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24193500"/>
+          <a:ext cx="11457143" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112858</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="228600"/>
+          <a:ext cx="11533333" cy="3495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112867</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>46858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="4010025"/>
+          <a:ext cx="11466667" cy="6133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>126546</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="5705475"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14479"/>
+            <a:gd name="adj2" fmla="val 156130"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Bấm vào đây để thu tiền</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3604,7 +4152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A24:A83"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
@@ -3638,7 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3662,4 +4210,97 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B157"/>
+  <sheetViews>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="M164" sqref="M164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backup Database/HDSD.xlsx
+++ b/Backup Database/HDSD.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\sms-store-managment-system\Backup Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\app\SMS\Backup Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
-    <sheet name="Màn hình bán hàng" sheetId="1" r:id="rId1"/>
-    <sheet name="Màn hình nhập kho mua hàng" sheetId="2" r:id="rId2"/>
-    <sheet name="Danh sách các phiếu nhập kho" sheetId="3" r:id="rId3"/>
-    <sheet name="Nhập điều chỉnh kho" sheetId="4" r:id="rId4"/>
-    <sheet name="Nhập kiểm kho" sheetId="5" r:id="rId5"/>
-    <sheet name="Màn hình thu tiền" sheetId="6" r:id="rId6"/>
-    <sheet name="Màn hình xuất kho bán hàng" sheetId="7" r:id="rId7"/>
+    <sheet name="Notes" sheetId="10" r:id="rId1"/>
+    <sheet name="Màn hình bán hàng" sheetId="1" r:id="rId2"/>
+    <sheet name="Màn hình nhập kho mua hàng" sheetId="2" r:id="rId3"/>
+    <sheet name="Danh sách các phiếu nhập kho" sheetId="3" r:id="rId4"/>
+    <sheet name="Nhập điều chỉnh kho" sheetId="4" r:id="rId5"/>
+    <sheet name="Nhập kiểm kho" sheetId="5" r:id="rId6"/>
+    <sheet name="Màn hình thu tiền" sheetId="6" r:id="rId7"/>
+    <sheet name="Màn hình xuất kho bán hàng" sheetId="7" r:id="rId8"/>
+    <sheet name="DSHD xuất kho BL" sheetId="8" r:id="rId9"/>
+    <sheet name="Xuất chuyển kho" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>MÀN HÌNH BÁN HÀNG</t>
   </si>
@@ -121,6 +124,30 @@
   <si>
     <t>Vào màn hình danh sách các hóa đơn chưa thu tiền</t>
   </si>
+  <si>
+    <t>Màn hình xuất kho bán hàng dùng để xuất kho cho các hóa đơn đã thu tiền</t>
+  </si>
+  <si>
+    <t>Màn hình xuất kho</t>
+  </si>
+  <si>
+    <t>danh sách các hóa đơn đã được xuất kho</t>
+  </si>
+  <si>
+    <t>Nhân viên quản lý kho chỉ được xem các hóa đơn do chính mình xuất kho.</t>
+  </si>
+  <si>
+    <t>Vấn đề đang giải quyết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Một người dùng có thể quản lý nhiều kho. </t>
+  </si>
+  <si>
+    <t>Vấn đề chưa được giải quyết.</t>
+  </si>
+  <si>
+    <t>Cấp quyền truy cập kho</t>
+  </si>
 </sst>
 </file>
 
@@ -154,12 +181,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,11 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3736,6 +3771,899 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Bấm vào đây để thu tiền</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>274770</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="304800"/>
+          <a:ext cx="11638095" cy="3342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74767</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>151880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="4181475"/>
+          <a:ext cx="11466667" cy="4161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="4133850"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29833"/>
+            <a:gd name="adj2" fmla="val 88107"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thông tin tìm kiếm hóa đơn đã thu tiền chờ được xuất kho.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>105015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="6610350"/>
+          <a:ext cx="2000250" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67086"/>
+            <a:gd name="adj2" fmla="val 77800"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ngày bán hàng</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="6143625"/>
+          <a:ext cx="2000250" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 84343"/>
+            <a:gd name="adj2" fmla="val 157161"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click vào đây đê xuất kho</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="6181725"/>
+          <a:ext cx="2000250" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -198038"/>
+            <a:gd name="adj2" fmla="val 139888"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click vào đây đê xuất kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608167</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="9153525"/>
+          <a:ext cx="11466667" cy="3828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800224" y="10096500"/>
+          <a:ext cx="4467225" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67562"/>
+            <a:gd name="adj2" fmla="val 53524"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click vào đây đê xuất kho. Sau khi xuất kho thành công hệ thống sẽ quay về màn hình danh sách các hóa đơn chờ xuất kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019925" y="10572750"/>
+          <a:ext cx="2000250" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67562"/>
+            <a:gd name="adj2" fmla="val 53524"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Danh sách các mặt hàng cần xuất kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543549" y="4162425"/>
+          <a:ext cx="4067175" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58024"/>
+            <a:gd name="adj2" fmla="val 102536"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Người dùng chỉ thấy được danh sách các kho mà mình đang phụ trách.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36677</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>151976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="381000"/>
+          <a:ext cx="11380952" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246205</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="4324350"/>
+          <a:ext cx="11561905" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114799" y="5314950"/>
+          <a:ext cx="2305051" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67086"/>
+            <a:gd name="adj2" fmla="val 77800"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Màn hình dành cho nhân viên quản lý kho</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246196</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>46886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="9563100"/>
+          <a:ext cx="11628571" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="10591800"/>
+          <a:ext cx="4229100" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -102549"/>
+            <a:gd name="adj2" fmla="val -9892"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Màn hình đăng nhập bằng quyền admin. Có thể xem tất cả các phiếu xuất kho của tất cả các nhân viên.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943849" y="6838950"/>
+          <a:ext cx="2981325" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69655"/>
+            <a:gd name="adj2" fmla="val 58313"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click vào đây để hủy phiếu xuất kho.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4015,6 +4943,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -4096,7 +5083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A41:A113"/>
   <sheetViews>
@@ -4148,7 +5135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A24:A83"/>
   <sheetViews>
@@ -4182,11 +5169,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4212,11 +5199,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B157"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="M164" sqref="M164"/>
     </sheetView>
   </sheetViews>
@@ -4267,11 +5254,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -4291,16 +5278,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="T60" sqref="T60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backup Database/HDSD.xlsx
+++ b/Backup Database/HDSD.xlsx
@@ -9,19 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="10" r:id="rId1"/>
-    <sheet name="Màn hình bán hàng" sheetId="1" r:id="rId2"/>
-    <sheet name="Màn hình nhập kho mua hàng" sheetId="2" r:id="rId3"/>
-    <sheet name="Danh sách các phiếu nhập kho" sheetId="3" r:id="rId4"/>
-    <sheet name="Nhập điều chỉnh kho" sheetId="4" r:id="rId5"/>
-    <sheet name="Nhập kiểm kho" sheetId="5" r:id="rId6"/>
-    <sheet name="Màn hình thu tiền" sheetId="6" r:id="rId7"/>
-    <sheet name="Màn hình xuất kho bán hàng" sheetId="7" r:id="rId8"/>
-    <sheet name="DSHD xuất kho BL" sheetId="8" r:id="rId9"/>
-    <sheet name="Xuất chuyển kho" sheetId="9" r:id="rId10"/>
+    <sheet name="Danh mục sản phẩm" sheetId="11" r:id="rId2"/>
+    <sheet name="Màn hình bán hàng" sheetId="1" r:id="rId3"/>
+    <sheet name="Màn hình nhập kho mua hàng" sheetId="2" r:id="rId4"/>
+    <sheet name="Danh sách các phiếu nhập kho" sheetId="3" r:id="rId5"/>
+    <sheet name="Nhập điều chỉnh kho" sheetId="4" r:id="rId6"/>
+    <sheet name="Nhập kiểm kho" sheetId="5" r:id="rId7"/>
+    <sheet name="Màn hình thu tiền" sheetId="6" r:id="rId8"/>
+    <sheet name="Màn hình xuất kho bán hàng" sheetId="7" r:id="rId9"/>
+    <sheet name="DSHD xuất kho BL" sheetId="8" r:id="rId10"/>
+    <sheet name="Xuất chuyển kho" sheetId="9" r:id="rId11"/>
+    <sheet name="Danh sách phếu xuất chuyển kho" sheetId="12" r:id="rId12"/>
+    <sheet name="Xuất hủy" sheetId="13" r:id="rId13"/>
+    <sheet name="Thu nợ khác hàng" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>MÀN HÌNH BÁN HÀNG</t>
   </si>
@@ -148,6 +152,33 @@
   <si>
     <t>Cấp quyền truy cập kho</t>
   </si>
+  <si>
+    <t>Màn hình xuất xuất chuyển kho</t>
+  </si>
+  <si>
+    <t>Lưu ý:</t>
+  </si>
+  <si>
+    <t>Kho xuất và kho nhận không được giống nhau.</t>
+  </si>
+  <si>
+    <t>Danh sách kho xuất là danh sách các kho do mình phụ trác.</t>
+  </si>
+  <si>
+    <t>Cách nhập danh sách các mặt hàng xuất kho giống như màn hình bán hàng.</t>
+  </si>
+  <si>
+    <t>Lưu =&gt; Chỉ lưu lại phiếu xuất, chưa xuất hàng đi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu + Xuất =&gt; Lưu lại phiếu xuất và xuất hàng đi, lúc này bên kho nhận sẽ thấy được phiếu chuyển kho và nhận hàng. </t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Ý nghĩa: làm giảm số lượng để phù hợp với tồn kho thực tế.</t>
+  </si>
 </sst>
 </file>
 
@@ -236,15 +267,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>503934</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28265</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493867</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>75952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -261,8 +292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="923925"/>
-          <a:ext cx="7123809" cy="2476190"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="11466667" cy="1980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -274,15 +305,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>465833</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190179</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>512914</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>65968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -299,8 +330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="4371975"/>
-          <a:ext cx="7133333" cy="2571429"/>
+          <a:off x="0" y="2409825"/>
+          <a:ext cx="11485714" cy="5657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -309,69 +340,35 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>446247</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>75506</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7419975"/>
-          <a:ext cx="11419047" cy="5552381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="409575" y="13515975"/>
-          <a:ext cx="2181225" cy="904875"/>
+          <a:off x="2590799" y="4105275"/>
+          <a:ext cx="3905251" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75941"/>
+            <a:gd name="adj2" fmla="val -90273"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -396,20 +393,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Ctrl + S</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> = Lưu</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tìm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> kiếm sản phẩm, dùng để kiểm tra xem sản phẩm có trong danh sách hay chưa?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -420,29 +417,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190875" y="13563600"/>
-          <a:ext cx="2800350" cy="904875"/>
+          <a:off x="3000374" y="2257426"/>
+          <a:ext cx="3905251" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83989"/>
+            <a:gd name="adj2" fmla="val 91386"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -467,20 +468,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2000">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Ctrl + Shift + S</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> = Lưu &amp; In hóa đơn</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000">
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xuất</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> danh sách sản phẩm ra file CSV</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -491,31 +492,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="11058525"/>
-          <a:ext cx="8810625" cy="904875"/>
+          <a:off x="7705724" y="2028826"/>
+          <a:ext cx="3905251" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -28693"/>
-            <a:gd name="adj2" fmla="val 131833"/>
+            <a:gd name="adj1" fmla="val -2596"/>
+            <a:gd name="adj2" fmla="val 115299"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -542,11 +543,18 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1600">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Phải có ít nhất 1 dòng điền đầy đủ thông tin: Sản phẩm + số lượng</a:t>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> nhanh danh sách sản phẩm bằng file csv. Template được download bằng cách xuất csv.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -557,147 +565,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476218</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142812</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="828675" y="16306800"/>
-          <a:ext cx="257143" cy="504762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>493871</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>171123</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="17316450"/>
-          <a:ext cx="11428571" cy="2619048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>122834</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>47213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="123825" y="21040725"/>
-          <a:ext cx="7923809" cy="3295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="19554825"/>
-          <a:ext cx="4000500" cy="1724025"/>
+          <a:off x="7505700" y="4143375"/>
+          <a:ext cx="3943350" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -98691"/>
-            <a:gd name="adj2" fmla="val 68577"/>
+            <a:gd name="adj1" fmla="val 37777"/>
+            <a:gd name="adj2" fmla="val -90273"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -724,20 +618,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Có</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> thể chọn sản phẩm trong danh sách được gợi ý bên dưới</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thêm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> mới vào danh mục sản phẩm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -746,33 +640,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493867</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8572500"/>
+          <a:ext cx="11466667" cy="4752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangular Callout 13"/>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4810125" y="21278850"/>
-          <a:ext cx="4000500" cy="1724025"/>
+          <a:off x="6677025" y="11544300"/>
+          <a:ext cx="3943350" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -112501"/>
-            <a:gd name="adj2" fmla="val -7666"/>
+            <a:gd name="adj1" fmla="val 37777"/>
+            <a:gd name="adj2" fmla="val -90273"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -799,33 +731,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Thông</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> tin giá bán, % chiếc khấu (tương ứng đối tượng đã được chọn).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Số lượng tồn ở từng kho khác nhau</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sửa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> thông tin sản phẩm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -834,71 +753,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>84737</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>37708</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="24526875"/>
-          <a:ext cx="7904762" cy="3133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangular Callout 15"/>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="24888825"/>
-          <a:ext cx="4000500" cy="1724025"/>
+          <a:off x="6296025" y="9105900"/>
+          <a:ext cx="3943350" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -112501"/>
-            <a:gd name="adj2" fmla="val -7666"/>
+            <a:gd name="adj1" fmla="val 68695"/>
+            <a:gd name="adj2" fmla="val 54990"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -925,23 +806,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Hoặc</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> có thể nhập đầy đủ Code của sản phẩm và Enter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xóa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> thông tin sản phẩm</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -952,34 +830,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266586</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>104613</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8082</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>46728</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPr id="11" name="Picture 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9105900" y="27622500"/>
-          <a:ext cx="914286" cy="1295238"/>
+          <a:off x="47625" y="13639800"/>
+          <a:ext cx="11542857" cy="7171428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,114 +866,33 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380840</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>123661</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810250" y="28336875"/>
-          <a:ext cx="1276190" cy="1314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>255652</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18408</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="152400" y="371475"/>
-          <a:ext cx="12180952" cy="5123809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>746311</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>124945</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>294154</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88526</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2594161" y="1125070"/>
-          <a:ext cx="2195793" cy="763681"/>
+          <a:off x="1752600" y="17145000"/>
+          <a:ext cx="3943350" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -80427"/>
-            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj1" fmla="val 68695"/>
+            <a:gd name="adj2" fmla="val 54990"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1122,29 +919,83 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Click here</a:t>
-          </a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> đầy đủ thông tin sản phẩm và lưu lại</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>474831</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="285750"/>
+          <a:ext cx="11352381" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>323446</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>187797</xdr:rowOff>
+      <xdr:colOff>46186</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>132757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1161,8 +1012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="145676" y="5434853"/>
-          <a:ext cx="12190476" cy="3695238"/>
+          <a:off x="114300" y="3962400"/>
+          <a:ext cx="11514286" cy="4742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,16 +1024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>96931</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>221317</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1191,15 +1042,741 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2386853" y="6376148"/>
-          <a:ext cx="2181225" cy="904875"/>
+          <a:off x="781050" y="5648326"/>
+          <a:ext cx="3019425" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -80427"/>
-            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj1" fmla="val -30252"/>
+            <a:gd name="adj2" fmla="val -81174"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Kho xuất chuyển</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="5648326"/>
+          <a:ext cx="2590800" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -30252"/>
+            <a:gd name="adj2" fmla="val -81174"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Kho nhận chuyển</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="7286625"/>
+          <a:ext cx="3019425" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40662"/>
+            <a:gd name="adj2" fmla="val 93826"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ctrl + S</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="7553325"/>
+          <a:ext cx="2590800" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45326"/>
+            <a:gd name="adj2" fmla="val 62576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ctrl + Shift + S</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93807</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="209550"/>
+          <a:ext cx="11542857" cy="5342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="3771900"/>
+          <a:ext cx="2590800" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45850"/>
+            <a:gd name="adj2" fmla="val 132576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sửa phiếu xuất kho.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465295</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11438095" cy="5038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560542</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="19050"/>
+          <a:ext cx="11466667" cy="4885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305174" y="1104900"/>
+          <a:ext cx="5838825" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49336"/>
+            <a:gd name="adj2" fmla="val 79944"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Đăng nhập vào màn hình danh sách khách hàng. (Hoặc danh sách khách hàng cảnh báo). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chọn thay đổi công nợ ứng với khách hàng đó.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>74908</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>37495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="5486400"/>
+          <a:ext cx="10333333" cy="4838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="6000750"/>
+          <a:ext cx="5838825" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34840"/>
+            <a:gd name="adj2" fmla="val 70853"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhập số tiền khách trả nợ. Và lưu lại</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>503934</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="923925"/>
+          <a:ext cx="7123809" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>465833</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="4371975"/>
+          <a:ext cx="7133333" cy="2571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>446247</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>75506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7419975"/>
+          <a:ext cx="11419047" cy="5552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409575" y="13515975"/>
+          <a:ext cx="2181225" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -1228,80 +1805,49 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Click here</a:t>
-          </a:r>
+            <a:t>Ctrl + S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> = Lưu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>32189</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>169719</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="616324" y="9883588"/>
-          <a:ext cx="11428571" cy="4876190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>585108</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>132951</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>185297</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9405258" y="9803947"/>
-          <a:ext cx="2195793" cy="782650"/>
+          <a:off x="3190875" y="13563600"/>
+          <a:ext cx="2800350" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -80427"/>
-            <a:gd name="adj2" fmla="val 98413"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -1326,20 +1872,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Sẽ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> hiển thị column đơn giá</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800">
+            <a:rPr lang="en-US" sz="2000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ctrl + Shift + S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> = Lưu &amp; In hóa đơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -1348,71 +1894,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>594561</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>6191</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="693965" y="16165286"/>
-          <a:ext cx="11466667" cy="4904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>14568</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>106375</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9286875" y="17545050"/>
-          <a:ext cx="2195793" cy="896950"/>
+          <a:off x="1133475" y="11058525"/>
+          <a:ext cx="8810625" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -80427"/>
-            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj1" fmla="val -28693"/>
+            <a:gd name="adj2" fmla="val 131833"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1439,19 +1947,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Không</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> thấy đơn giá</a:t>
-          </a:r>
+            <a:rPr lang="vi-VN" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phải có ít nhất 1 dòng điền đầy đủ thông tin: Sản phẩm + số lượng</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1460,33 +1965,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>32189</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>169719</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476218</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142812</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="21431250"/>
-          <a:ext cx="11490764" cy="4932219"/>
+          <a:off x="828675" y="16306800"/>
+          <a:ext cx="257143" cy="504762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,33 +2000,109 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493871</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>171123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="17316450"/>
+          <a:ext cx="11428571" cy="2619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122834</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="21040725"/>
+          <a:ext cx="7923809" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>115900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4019550" y="21602700"/>
-          <a:ext cx="3743325" cy="896950"/>
+          <a:off x="3209925" y="19554825"/>
+          <a:ext cx="4000500" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -80427"/>
-            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj1" fmla="val -98691"/>
+            <a:gd name="adj2" fmla="val 68577"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1552,132 +2133,36 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Chỉ</a:t>
+            <a:t>Có</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> có quyền admin mới được thay đổi kho</a:t>
-          </a:r>
+            <a:t> thể chọn sản phẩm trong danh sách được gợi ý bên dưới</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>508834</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>154511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="598715" y="27853821"/>
-          <a:ext cx="11476190" cy="4876190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>144234</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>129268</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>88685</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="29290734"/>
-          <a:ext cx="4837339" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 26729"/>
-            <a:gd name="adj2" fmla="val 147001"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Với quyền quản lý kho, sau khi nhập số lượng + Enter =&gt; sẽ thêm được dòng mới</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>106133</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>50584</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1686,280 +2171,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9778092" y="29252633"/>
-          <a:ext cx="4427763" cy="924165"/>
+          <a:off x="4810125" y="21278850"/>
+          <a:ext cx="4000500" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -45531"/>
-            <a:gd name="adj2" fmla="val 164669"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Với quyền quản lý kho, sau khi nhập số lượng + Enter =&gt; sẽ di chuyển đến ô đơn giá</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>212272</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91168</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>91406</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangular Callout 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1464129" y="30575250"/>
-          <a:ext cx="3784146" cy="622085"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -30804"/>
-            <a:gd name="adj2" fmla="val 198534"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Ctrl+S để lưu</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>545572</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>2048</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="625929" y="33310286"/>
-          <a:ext cx="11485714" cy="5390476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>734788</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>415020</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>230201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2598967" y="32861250"/>
-          <a:ext cx="9382124" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -32589"/>
-            <a:gd name="adj2" fmla="val 80744"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Khi hóa đơn nhập không hợp lệ, chúng ta sẽ nhận đuộc thông báo như hình bên dưới</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>312801</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161420</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="123825"/>
-          <a:ext cx="12190476" cy="4038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>164646</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="447675"/>
-          <a:ext cx="3784146" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -16997"/>
-            <a:gd name="adj2" fmla="val 158191"/>
+            <a:gd name="adj1" fmla="val -112501"/>
+            <a:gd name="adj2" fmla="val -7666"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1990,9 +2208,29 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Click here</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:t>Thông</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> tin giá bán, % chiếc khấu (tương ứng đối tượng đã được chọn).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Số lượng tồn ở từng kho khác nhau</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -2004,33 +2242,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>465295</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180374</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>84737</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>37708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="15" name="Picture 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4705350"/>
-          <a:ext cx="11438095" cy="4809524"/>
+          <a:off x="104775" y="24526875"/>
+          <a:ext cx="7904762" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2039,133 +2277,33 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>522438</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>151759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9696450"/>
-          <a:ext cx="11495238" cy="5123809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>259896</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114540</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvPr id="16" name="Rounded Rectangular Callout 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5619750" y="10429875"/>
-          <a:ext cx="3784146" cy="924165"/>
+          <a:off x="3505200" y="24888825"/>
+          <a:ext cx="4000500" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -36630"/>
-            <a:gd name="adj2" fmla="val 85014"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Admin có thể xem tất cả các phiếu nhập kho của tất cả các nhân viên.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>498021</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2809875" y="7419975"/>
-          <a:ext cx="3784146" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -36630"/>
-            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj1" fmla="val -112501"/>
+            <a:gd name="adj2" fmla="val -7666"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2192,60 +2330,195 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Hoặc</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Nhân viên quản lý kho chỉ có thể nhìn thấy các phiếu nhập kho của mình</a:t>
-          </a:r>
+            <a:t> có thể nhập đầy đủ Code của sản phẩm và Enter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266586</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>104613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9105900" y="27622500"/>
+          <a:ext cx="914286" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>380840</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>123661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="28336875"/>
+          <a:ext cx="1276190" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>255652</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="371475"/>
+          <a:ext cx="12180952" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>107496</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>162165</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>746311</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>124945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294154</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5467350" y="4572000"/>
-          <a:ext cx="3784146" cy="924165"/>
+          <a:off x="2594161" y="1125070"/>
+          <a:ext cx="2195793" cy="763681"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -36630"/>
-            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2254,60 +2527,100 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Tìm kiếm phiếu nhập kho theo nhà cung cấp</a:t>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click here</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323446</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>187797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="145676" y="5434853"/>
+          <a:ext cx="12190476" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>183696</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66915</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96931</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>221317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="4476750"/>
-          <a:ext cx="3784146" cy="924165"/>
+          <a:off x="2386853" y="6376148"/>
+          <a:ext cx="2181225" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -36630"/>
-            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2316,60 +2629,100 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Các loại nhập kho: Nhập mua hàng, Nhập chuyển kho, nhập điều chỉnh ...</a:t>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click here</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32189</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>169719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616324" y="9883588"/>
+          <a:ext cx="11428571" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374196</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>124065</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132951</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>185297</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3905250" y="6057900"/>
-          <a:ext cx="3784146" cy="924165"/>
+          <a:off x="9405258" y="9803947"/>
+          <a:ext cx="2195793" cy="782650"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -76903"/>
-            <a:gd name="adj2" fmla="val -32481"/>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2378,140 +2731,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sẽ</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1800" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Ngày nhập kho: Từ ngày A đến ngày B</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>59871</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1762125" y="10048875"/>
-          <a:ext cx="3784146" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -19262"/>
-            <a:gd name="adj2" fmla="val 107689"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>và tất cả các kho</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>88446</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>66915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="12668250"/>
-          <a:ext cx="3784146" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -32854"/>
-            <a:gd name="adj2" fmla="val -111842"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Menu di chuyển nhanh đến các hạng mục: nhập mua hàng ....</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:t> hiển thị column đơn giá</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -2520,160 +2753,22 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>155121</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>9765</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangular Callout 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6734175" y="12801600"/>
-          <a:ext cx="3784146" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 65816"/>
-            <a:gd name="adj2" fmla="val -64432"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Phân trang</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>85965</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangular Callout 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="200025" y="14401800"/>
-          <a:ext cx="3784146" cy="924165"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -18758"/>
-            <a:gd name="adj2" fmla="val -96382"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Click vào đây để xem chi tiết phiếu nhập kho</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>551012</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>56537</xdr:rowOff>
+      <xdr:colOff>594561</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>6191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2686,8 +2781,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="15916275"/>
-          <a:ext cx="11504762" cy="4904762"/>
+          <a:off x="693965" y="16165286"/>
+          <a:ext cx="11466667" cy="4904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,30 +2794,372 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14568</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>583746</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>106375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16"/>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="14782800"/>
-          <a:ext cx="3784146" cy="1295400"/>
+          <a:off x="9286875" y="17545050"/>
+          <a:ext cx="2195793" cy="896950"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 120"/>
-            <a:gd name="adj2" fmla="val -134516"/>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Không</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> thấy đơn giá</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32189</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>169719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="21431250"/>
+          <a:ext cx="11490764" cy="4932219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>115900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="21602700"/>
+          <a:ext cx="3743325" cy="896950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80427"/>
+            <a:gd name="adj2" fmla="val 98413"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chỉ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> có quyền admin mới được thay đổi kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508834</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>154511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598715" y="27853821"/>
+          <a:ext cx="11476190" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>144234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129268</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>88685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="29290734"/>
+          <a:ext cx="4837339" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26729"/>
+            <a:gd name="adj2" fmla="val 147001"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Với quyền quản lý kho, sau khi nhập số lượng + Enter =&gt; sẽ thêm được dòng mới</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>106133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>50584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangular Callout 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9778092" y="29252633"/>
+          <a:ext cx="4427763" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -45531"/>
+            <a:gd name="adj2" fmla="val 164669"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Với quyền quản lý kho, sau khi nhập số lượng + Enter =&gt; sẽ di chuyển đến ô đơn giá</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91168</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>91406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangular Callout 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1464129" y="30575250"/>
+          <a:ext cx="3784146" cy="622085"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -30804"/>
+            <a:gd name="adj2" fmla="val 198534"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2751,9 +3188,99 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Sửa và hủy phiếu nhập kho.</a:t>
-          </a:r>
-        </a:p>
+            <a:t>Ctrl+S để lưu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>545572</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>2048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625929" y="33310286"/>
+          <a:ext cx="11485714" cy="5390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>734788</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>415020</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>230201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2598967" y="32861250"/>
+          <a:ext cx="9382124" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32589"/>
+            <a:gd name="adj2" fmla="val 80744"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -2761,15 +3288,8 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Chỉ có thể sửa được phiếu nhập trong các trường hợp nhập mua hàng, nhập điều chỉnh kho. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
+            <a:t>Khi hóa đơn nhập không hợp lệ, chúng ta sẽ nhận đuộc thông báo như hình bên dưới</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2782,16 +3302,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>512914</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>18459</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>312801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2808,8 +3328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="438150"/>
-          <a:ext cx="11485714" cy="4723809"/>
+          <a:off x="314325" y="123825"/>
+          <a:ext cx="12190476" cy="4038095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2820,16 +3340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>345621</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66915</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164646</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2838,29 +3358,31 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657475" y="3714750"/>
+          <a:off x="7353300" y="447675"/>
           <a:ext cx="3784146" cy="924165"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -67086"/>
-            <a:gd name="adj2" fmla="val 77800"/>
+            <a:gd name="adj1" fmla="val -16997"/>
+            <a:gd name="adj2" fmla="val 158191"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2869,15 +3391,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Ctrl + S = Lưu</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:rPr lang="en-US" sz="1800">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click here</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1800" baseline="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2889,16 +3408,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>522438</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>180381</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>465295</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2915,6 +3434,892 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="4705350"/>
+          <a:ext cx="11438095" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>522438</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>151759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9696450"/>
+          <a:ext cx="11495238" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259896</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="10429875"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Admin có thể xem tất cả các phiếu nhập kho của tất cả các nhân viên.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>498021</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="7419975"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Nhân viên quản lý kho chỉ có thể nhìn thấy các phiếu nhập kho của mình</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107496</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467350" y="4572000"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tìm kiếm phiếu nhập kho theo nhà cung cấp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183696</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="4476750"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36630"/>
+            <a:gd name="adj2" fmla="val 85014"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Các loại nhập kho: Nhập mua hàng, Nhập chuyển kho, nhập điều chỉnh ...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>374196</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="6057900"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -76903"/>
+            <a:gd name="adj2" fmla="val -32481"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ngày nhập kho: Từ ngày A đến ngày B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="10048875"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -19262"/>
+            <a:gd name="adj2" fmla="val 107689"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>và tất cả các kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88446</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="12668250"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32854"/>
+            <a:gd name="adj2" fmla="val -111842"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Menu di chuyển nhanh đến các hạng mục: nhập mua hàng ....</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155121</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangular Callout 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734175" y="12801600"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 65816"/>
+            <a:gd name="adj2" fmla="val -64432"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Phân trang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>85965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangular Callout 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="14401800"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -18758"/>
+            <a:gd name="adj2" fmla="val -96382"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Click vào đây để xem chi tiết phiếu nhập kho</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>551012</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>56537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="15916275"/>
+          <a:ext cx="11504762" cy="4904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>583746</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangular Callout 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="14782800"/>
+          <a:ext cx="3784146" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 120"/>
+            <a:gd name="adj2" fmla="val -134516"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sửa và hủy phiếu nhập kho.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chỉ có thể sửa được phiếu nhập trong các trường hợp nhập mua hàng, nhập điều chỉnh kho. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>512914</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="438150"/>
+          <a:ext cx="11485714" cy="4723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>345621</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="3714750"/>
+          <a:ext cx="3784146" cy="924165"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67086"/>
+            <a:gd name="adj2" fmla="val 77800"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ctrl + S = Lưu</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522438</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="609600" y="5524500"/>
           <a:ext cx="11495238" cy="4752381"/>
         </a:xfrm>
@@ -3266,7 +4671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3637,7 +5042,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3787,7 +5192,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4361,20 +5766,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>36677</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>522452</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>151976</xdr:rowOff>
+      <xdr:rowOff>75776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4391,7 +5796,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="381000"/>
+          <a:off x="114300" y="304800"/>
           <a:ext cx="11380952" cy="3390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4945,8 +6350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4985,10 +6390,94 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4997,10 +6486,76 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C124"/>
   <sheetViews>
@@ -5083,7 +6638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A41:A113"/>
   <sheetViews>
@@ -5135,11 +6690,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A24:A83"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
@@ -5169,7 +6724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5199,7 +6754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B157"/>
   <sheetViews>
@@ -5254,7 +6809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5278,7 +6833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A47"/>
   <sheetViews>
@@ -5306,33 +6861,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="T60" sqref="T60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Backup Database/HDSD.xlsx
+++ b/Backup Database/HDSD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>MÀN HÌNH BÁN HÀNG</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Ý nghĩa: làm giảm số lượng để phù hợp với tồn kho thực tế.</t>
+  </si>
+  <si>
+    <t>- So sánh tồn kho : Kiểm tra lại phần xuất nhập.</t>
+  </si>
+  <si>
+    <t>- Nghiên cứu dùng hightCharts.</t>
+  </si>
+  <si>
+    <t>- Autocomplete và Around Key.</t>
   </si>
 </sst>
 </file>
@@ -6348,10 +6357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C18"/>
+  <dimension ref="A4:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6378,10 +6387,28 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
     </row>
-    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6523,7 +6550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
